--- a/Docsy/parametry.xlsx
+++ b/Docsy/parametry.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12180" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Strefa Robocza</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>rmax=</t>
+  </si>
+  <si>
+    <t>prędkość</t>
+  </si>
+  <si>
+    <t>przyspieszenie</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>ze środka ciężkości</t>
   </si>
 </sst>
 </file>
@@ -377,6 +389,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -388,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +721,7 @@
   <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -771,15 +783,15 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -805,7 +817,7 @@
       </c>
       <c r="G4" s="2">
         <f>C12+SIN(RADIANS(C4))*C6/2</f>
-        <v>1502.0729309053138</v>
+        <v>2032.0729309053138</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -820,8 +832,8 @@
         <v>67</v>
       </c>
       <c r="R4">
-        <f>C12</f>
-        <v>1330</v>
+        <f>C12+COS(RADIANS(C4))*C6/2</f>
+        <v>2105.7456132866973</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -831,7 +843,7 @@
       </c>
       <c r="G5" s="2">
         <f>-C15/2+C11*COS(ASIN((C12/C11)))+C6/2*SIN(RADIANS(90-C4))</f>
-        <v>1631.5147102301119</v>
+        <v>2093.9593292133418</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -847,7 +859,7 @@
       </c>
       <c r="R5">
         <f>C15/2-C17*COS(RADIANS(90-C4))</f>
-        <v>624.24824727713383</v>
+        <v>777.9270690946862</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -863,10 +875,10 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -876,10 +888,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>27</v>
@@ -899,14 +911,14 @@
       </c>
       <c r="G8" s="2">
         <f>G4+C3</f>
-        <v>2102.072930905314</v>
+        <v>2782.072930905314</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="4">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>5</v>
@@ -927,7 +939,7 @@
       </c>
       <c r="G9" s="2">
         <f>C15/2-C11*COS(ASIN(((G8+C6/2*SIN(RADIANS(C4)))/C11)))-C6/2*SIN(RADIANS(90-C4))</f>
-        <v>-639.21210819314183</v>
+        <v>-896.56484953641916</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
@@ -935,19 +947,18 @@
       </c>
       <c r="J9" s="2">
         <f>C11*SIN(ACOS((C15/2+J8-COS(RADIANS(C4))*C6/2)/C11))-SIN(RADIANS(35))*C6/2</f>
-        <v>2122.6512554441983</v>
+        <v>2856.9110866697401</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="R9" s="2">
-        <f>R5</f>
-        <v>624.24824727713383</v>
-      </c>
-      <c r="U9" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="V9" s="2">
@@ -967,19 +978,19 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="R10" s="2">
         <f>R12-R4</f>
-        <v>780.02728818631931</v>
-      </c>
-      <c r="U10" s="9" t="s">
+        <v>751.16547338304281</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="V10" s="2">
         <f>V21+COS(RADIANS(C4))*C6/2</f>
-        <v>916.63644926208462</v>
+        <v>1030.0352161802202</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -987,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2580</v>
+        <v>3360</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -997,7 +1008,7 @@
       </c>
       <c r="G11" s="2">
         <f>C3</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>5</v>
@@ -1007,7 +1018,7 @@
       </c>
       <c r="J11" s="2">
         <f>J9-G4</f>
-        <v>620.57832453888454</v>
+        <v>824.83815576442635</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>5</v>
@@ -1015,10 +1026,17 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2">
         <f>MIN(J11,G11)</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N11" t="s">
         <v>61</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <f>K31-K32</f>
+        <v>751.16547338304281</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1026,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>1330</v>
+        <v>1860</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1036,7 +1054,7 @@
       </c>
       <c r="G12" s="2">
         <f>ABS(MIN(G9,G5))</f>
-        <v>639.21210819314183</v>
+        <v>896.56484953641916</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>5</v>
@@ -1046,7 +1064,7 @@
       </c>
       <c r="J12" s="2">
         <f>J8</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>5</v>
@@ -1054,22 +1072,22 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2">
         <f>MIN(J12,G12)</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="R12">
         <f>R21-SIN(RADIANS(C4))*C6/2</f>
-        <v>2110.0272881863193</v>
+        <v>2856.9110866697401</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1087,19 +1105,19 @@
       </c>
       <c r="G14" s="2">
         <f>-G9+350*COS(RADIANS((45)))</f>
-        <v>886.69948160843342</v>
+        <v>1144.0522229517107</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <f>J8+350*COS(RADIANS((45)))</f>
-        <v>847.48737341529159</v>
+        <f>J8+350*COS(RADIANS((35)))</f>
+        <v>1036.703215501147</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2">
         <f>C15/2</f>
-        <v>825</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1110,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1146,7 +1164,7 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1161,10 +1179,14 @@
       <c r="M17" s="2"/>
       <c r="Q17">
         <f>ACOS((C15/2+R20)/C11)</f>
-        <v>1.0854961592565511</v>
+        <v>1.123184573832847</v>
       </c>
       <c r="R17" t="s">
         <v>65</v>
+      </c>
+      <c r="S17">
+        <f>DEGREES(Q17)</f>
+        <v>64.353735694822134</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1183,7 +1205,9 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1193,8 +1217,13 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2">
+        <f>R9+C17*SIN(RADIANS(C4))</f>
+        <v>922.0729309053138</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1206,14 +1235,14 @@
       </c>
       <c r="R20">
         <f>R9-COS(RADIANS(C4))*C6/2</f>
-        <v>378.50263399043627</v>
+        <v>504.25438671330244</v>
       </c>
       <c r="U20" t="s">
         <v>68</v>
       </c>
       <c r="V20">
         <f>R4+V9+SIN(RADIANS(C4))*C6/2</f>
-        <v>2102.072930905314</v>
+        <v>2877.8185441920114</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -1222,24 +1251,52 @@
       </c>
       <c r="R21">
         <f>C11*SIN(Q17)</f>
-        <v>2282.1002190916333</v>
+        <v>3028.9840175750542</v>
       </c>
       <c r="U21" t="s">
         <v>66</v>
       </c>
       <c r="V21">
         <f>SQRT(C11^2-V20^2)-C15/2</f>
-        <v>670.89083597538706</v>
+        <v>784.28960289352267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
+      <c r="O25">
+        <f>(R9-C6/2*COS(RADIANS(C4))+C15/2)/C11</f>
+        <v>0.43281380556943527</v>
+      </c>
+      <c r="Q25">
+        <f>ACOS(O25)</f>
+        <v>1.123184573832847</v>
+      </c>
+      <c r="R25" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
+      <c r="M26">
+        <f>SQRT(1-O25^2)</f>
+        <v>0.9014833385640042</v>
+      </c>
+      <c r="Q26">
+        <f>DEGREES(Q25)</f>
+        <v>64.353735694822134</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
+      <c r="M27">
+        <f>SIN(Q25)</f>
+        <v>0.9014833385640042</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -1250,59 +1307,113 @@
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31">
+        <f>C11*SQRT(1-((R9-C6/2*COS(RADIANS(C4))+C15/2)/C11)^2)-C6/2*SIN(RADIANS(C4))</f>
+        <v>2856.9110866697401</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31">
+        <f>C11*SIN(Q25)-C6/2*SIN(RADIANS(C4))</f>
+        <v>2856.9110866697401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <f>C12+C6/2*COS(RADIANS(C4))</f>
+        <v>2105.7456132866973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40">
         <f>RADIANS(400)*C6/2</f>
         <v>2094.3951023931954</v>
       </c>
-      <c r="C44">
+      <c r="C40">
         <v>9800</v>
       </c>
-      <c r="D44">
-        <f>C44+B44</f>
+      <c r="D40">
+        <f>C40+B40</f>
         <v>11894.395102393195</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <f>D44/1000</f>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>D40/1000</f>
         <v>11.894395102393196</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42">
         <f>RADIANS(28)*C6/2</f>
         <v>146.60765716752368</v>
       </c>
+      <c r="C42">
+        <v>890</v>
+      </c>
+      <c r="D42">
+        <f>C42+B42</f>
+        <v>1036.6076571675237</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>762</v>
+      </c>
+      <c r="D43">
+        <f>D42/1000</f>
+        <v>1.0366076571675238</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
       <c r="C46">
-        <v>890</v>
+        <f>SQRT(C42^2+C43^2)</f>
+        <v>1171.6415834204588</v>
       </c>
       <c r="D46">
-        <f>C46+B46</f>
-        <v>1036.6076571675237</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <f>D46/1000</f>
-        <v>1.0366076571675238</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
+        <f>C46+B42</f>
+        <v>1318.2492405879825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <f>SQRT(2)*C40</f>
+        <v>13859.292911256332</v>
+      </c>
+      <c r="D48">
+        <f>C48+B40</f>
+        <v>15953.688013649527</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">

--- a/Docsy/parametry.xlsx
+++ b/Docsy/parametry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13125" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,10 +1455,10 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I58" t="s">
         <v>47</v>
@@ -1475,10 +1475,10 @@
         <v>13</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>13</v>
@@ -1492,7 +1492,7 @@
         <v>31</v>
       </c>
       <c r="C60">
-        <v>885.87379999999996</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1512,11 +1512,11 @@
         <v>32</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <f>RADIANS(C61)</f>
-        <v>0.17453292519943295</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -1539,11 +1539,11 @@
         <v>33</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <f>RADIANS(C62)</f>
-        <v>0.3490658503988659</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="L62">
-        <v>-300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -1563,11 +1563,11 @@
         <v>34</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f>RADIANS(C63)</f>
-        <v>0.52359877559829882</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>31</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="L65">
         <f t="array" ref="L65:L67">MMULT(B90:E93,L61:L64)</f>
-        <v>140.95389311788625</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="E66" s="2">
         <f>C58</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H66">
         <f t="array" ref="H66:H69">MMULT(B90:E93,G58:G61)</f>
-        <v>140.95389311788625</v>
+        <v>1122</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L66">
-        <v>-246.95188339365029</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -1636,16 +1636,16 @@
       </c>
       <c r="E67" s="2">
         <f>C59</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>-246.95188339365029</v>
+        <v>102</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L67">
-        <v>790.23506672084966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -1660,17 +1660,17 @@
       </c>
       <c r="E68" s="2">
         <f>C60</f>
-        <v>885.87379999999996</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>790.23506672084966</v>
+        <v>0</v>
       </c>
       <c r="K68" t="s">
         <v>49</v>
       </c>
       <c r="L68">
         <f>SQRT((L65-L58)^2+(L66-L59)^2+(L67-L60)^2)</f>
-        <v>1117.4663460380716</v>
+        <v>848.63693310810481</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="C73" s="2">
         <f>COS(RADIANS($C$61))</f>
-        <v>0.98480775301220802</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2">
         <f>-SIN(RADIANS(($C$61)))</f>
-        <v>-0.17364817766693033</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C74" s="2">
         <f>SIN(RADIANS($C$61))</f>
-        <v>0.17364817766693033</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
         <f>COS(RADIANS($C$61))</f>
-        <v>0.98480775301220802</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -1769,14 +1769,14 @@
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f>COS($D$62)</f>
-        <v>0.93969262078590843</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
       </c>
       <c r="D78" s="2">
         <f>-SIN($D$62)</f>
-        <v>-0.34202014332566871</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -1799,14 +1799,14 @@
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f>-SIN($D$62)</f>
-        <v>-0.34202014332566871</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
       </c>
       <c r="D80" s="2">
         <f>COS($D$62)</f>
-        <v>0.93969262078590843</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -1837,11 +1837,11 @@
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f>COS($D$63)</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2">
         <f>-SIN($D$63)</f>
-        <v>-0.49999999999999994</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -1853,11 +1853,11 @@
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f>SIN($D$63)</f>
-        <v>0.49999999999999994</v>
+        <v>0</v>
       </c>
       <c r="C85" s="2">
         <f>COS($D$63)</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -1902,44 +1902,44 @@
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <f t="array" ref="B90:E93">MMULT(MMULT(B66:E69,B72:E75),MMULT(B78:E81,B84:E87))</f>
-        <v>0.8137976813493738</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.46984631039295416</v>
+        <v>0</v>
       </c>
       <c r="D90" s="2">
-        <v>-0.34202014332566871</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
-        <v>0.54383814248232554</v>
+        <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>0.82317294464550095</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2">
-        <v>-0.16317591116653482</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
-        <v>-0.20487412870286215</v>
+        <v>0</v>
       </c>
       <c r="C92" s="2">
-        <v>0.31879577759716782</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2">
-        <v>0.92541657839832336</v>
+        <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>885.87379999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">

--- a/Docsy/parametry.xlsx
+++ b/Docsy/parametry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14070" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
